--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liceo Compu-Market\Desktop\Refuerzoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="menu" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="160">
   <si>
     <t>numero</t>
   </si>
@@ -466,9 +467,6 @@
     <t>Gestión deportiva</t>
   </si>
   <si>
-    <t>subgerente</t>
-  </si>
-  <si>
     <t>Gerente Administrativo/ Operacional</t>
   </si>
   <si>
@@ -482,13 +480,43 @@
   </si>
   <si>
     <t>Analista de Créditos y Riesgos</t>
+  </si>
+  <si>
+    <t>nombre:</t>
+  </si>
+  <si>
+    <t>edad:</t>
+  </si>
+  <si>
+    <t>cargo:</t>
+  </si>
+  <si>
+    <t>sueldo:</t>
+  </si>
+  <si>
+    <t>fecha:</t>
+  </si>
+  <si>
+    <t>id:</t>
+  </si>
+  <si>
+    <t>BUSQUEDA</t>
+  </si>
+  <si>
+    <t>TOTAL SUELDO MENSUAL</t>
+  </si>
+  <si>
+    <t>Gerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productosubgerenteGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de productoGerente de producto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;Q&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,23 +538,82 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF9C0006"/>
+      <name val="Adobe Caslon Pro Bold"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -534,25 +621,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="2" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -562,6 +745,277 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$E$9" max="100" min="1" page="10" val="46"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1533525</xdr:colOff>
+          <xdr:row>103</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2667000</xdr:colOff>
+          <xdr:row>107</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-GT" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Botón 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>102</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>105</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-GT" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Botón 2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>88</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="Button 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-GT" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Botón 3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>942975</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="Spinner 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,6 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2542,7 +2997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja2">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -2556,2270 +3011,2693 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85:J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="17">
+        <f ca="1">RANDBETWEEN(2700,5000)</f>
+        <v>4057</v>
+      </c>
+      <c r="F2" s="8">
+        <f ca="1">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
+        <v>43539</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>26</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E2">
-        <f ca="1">RANDBETWEEN(2700,5000)</f>
-        <v>3214</v>
-      </c>
-      <c r="F2" s="3">
-        <f ca="1">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
+      <c r="E3" s="17">
+        <v>1256</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F66" ca="1" si="0">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
+        <v>43587</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>28</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" ref="E4:E66" ca="1" si="1">RANDBETWEEN(2700,5000)</f>
+        <v>4705</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43542</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>29</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4019</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43544</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>31</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3104</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43568</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>33</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4020</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43491</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>34</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2971</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43526</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>35</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3265</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43520</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4504</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43494</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>39</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2758</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43525</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>41</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4120</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43589</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>43</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3943</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43539</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>45</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4831</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43499</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>49</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3259</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43542</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>35</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4243</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43512</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>41</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4174</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43527</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>43</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4852</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43508</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>45</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3430</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43562</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>47</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3621</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43480</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>46</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3555</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43582</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4625</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43518</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>25</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2822</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43477</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>27</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3643</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43553</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>29</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2928</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43565</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>31</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4482</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43476</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>33</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4690</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43486</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>34</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3651</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43499</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>36</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3062</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43566</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>37</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4216</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43561</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>39</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3753</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43503</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>40</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4759</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43488</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>42</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3954</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43571</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2960</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43479</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>46</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3880</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43574</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>48</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3778</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43558</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <v>49</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4021</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43581</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10">
+        <v>50</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3098</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43527</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10">
+        <v>64</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4975</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43481</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10">
+        <v>16</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4463</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43521</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10">
+        <v>45</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2871</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43508</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10">
+        <v>16</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2770</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43500</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10">
+        <v>25</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3443</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43481</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10">
+        <v>56</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3478</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43564</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10">
+        <v>45</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3686</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43513</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10">
+        <v>35</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4615</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43533</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10">
+        <v>42</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4392</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43491</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10">
+        <v>45</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3610</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43494</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10">
+        <v>38</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4118</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43578</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10">
+        <v>347</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3993</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43526</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10">
+        <v>39</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3712</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43504</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10">
+        <v>46</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4822</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43537</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10">
+        <v>45</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4104</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43518</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10">
+        <v>45</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4765</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>43547</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10">
+        <v>15</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2858</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43477</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10">
+        <v>23</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3851</v>
+      </c>
+      <c r="F56" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43532</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10">
+        <v>25</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2941</v>
+      </c>
+      <c r="F57" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43536</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10">
+        <v>29</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3373</v>
+      </c>
+      <c r="F58" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43505</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10">
+        <v>31</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4566</v>
+      </c>
+      <c r="F59" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43552</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10">
+        <v>33</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2707</v>
+      </c>
+      <c r="F60" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43506</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10">
+        <v>36</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3988</v>
+      </c>
+      <c r="F61" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43527</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10">
+        <v>35</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3817</v>
+      </c>
+      <c r="F62" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43585</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10">
+        <v>32</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4618</v>
+      </c>
+      <c r="F63" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43480</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10">
+        <v>45</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4960</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43522</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10">
+        <v>49</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4229</v>
+      </c>
+      <c r="F65" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43479</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10">
+        <v>45</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2718</v>
+      </c>
+      <c r="F66" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43569</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10">
+        <v>25</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="17">
+        <f t="shared" ref="E67:E101" ca="1" si="2">RANDBETWEEN(2700,5000)</f>
+        <v>4342</v>
+      </c>
+      <c r="F67" s="8">
+        <f t="shared" ref="F67:F101" ca="1" si="3">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
+        <v>43546</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10">
+        <v>18</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>2824</v>
+      </c>
+      <c r="F68" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43566</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10">
+        <v>19</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4983</v>
+      </c>
+      <c r="F69" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43514</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10">
+        <v>20</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>3717</v>
+      </c>
+      <c r="F70" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43485</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10">
+        <v>24</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4864</v>
+      </c>
+      <c r="F71" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43555</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="10">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F66" ca="1" si="0">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
-        <v>43550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E3:E66" ca="1" si="1">RANDBETWEEN(2700,5000)</f>
-        <v>3201</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="C72" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>3418</v>
+      </c>
+      <c r="F72" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43548</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10">
+        <v>25</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>2711</v>
+      </c>
+      <c r="F73" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43582</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="10">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3315</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>3141</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>3101</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3994</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>4769</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4890</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43490</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>4454</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2912</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>4825</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>4591</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="1"/>
-        <v>3744</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>2891</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>4759</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3690</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43517</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>3736</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>4898</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43530</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>4310</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>4902</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>2992</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>3098</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>3987</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>3578</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43543</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>3273</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43564</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>34</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>2876</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>4872</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>2936</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43545</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>2775</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43531</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>3541</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43575</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>3868</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43558</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>3100</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>2863</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>48</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>3604</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43564</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>3726</v>
-      </c>
-      <c r="F37" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43533</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>50</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>4268</v>
-      </c>
-      <c r="F38" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43540</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>64</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>4918</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43505</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>16</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>3408</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43521</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>45</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>4568</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>16</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>3480</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43546</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>4745</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>56</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>4854</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43576</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>45</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>4888</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43482</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>35</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>4867</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43510</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>42</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>4032</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>45</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>3828</v>
-      </c>
-      <c r="F48" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43560</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>38</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>3880</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43494</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>347</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>3690</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43536</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>39</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>2720</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43521</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>46</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ca="1" si="1"/>
-        <v>3999</v>
-      </c>
-      <c r="F52" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43543</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>45</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>2933</v>
-      </c>
-      <c r="F53" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43527</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>45</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="1"/>
-        <v>2968</v>
-      </c>
-      <c r="F54" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43575</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>15</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>4126</v>
-      </c>
-      <c r="F55" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43582</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>23</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="1"/>
-        <v>3611</v>
-      </c>
-      <c r="F56" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43560</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>25</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ca="1" si="1"/>
-        <v>3147</v>
-      </c>
-      <c r="F57" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43506</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>29</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="1"/>
-        <v>4487</v>
-      </c>
-      <c r="F58" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43519</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>31</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>4997</v>
-      </c>
-      <c r="F59" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>33</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ca="1" si="1"/>
-        <v>3203</v>
-      </c>
-      <c r="F60" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43563</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>36</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="1"/>
-        <v>4877</v>
-      </c>
-      <c r="F61" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43544</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>35</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ca="1" si="1"/>
-        <v>4787</v>
-      </c>
-      <c r="F62" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43503</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>32</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="1"/>
-        <v>4585</v>
-      </c>
-      <c r="F63" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43475</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>45</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>3112</v>
-      </c>
-      <c r="F64" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43553</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>49</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>4128</v>
-      </c>
-      <c r="F65" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43566</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>45</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ca="1" si="1"/>
-        <v>4321</v>
-      </c>
-      <c r="F66" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43551</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>25</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" t="s">
-        <v>130</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E101" ca="1" si="2">RANDBETWEEN(2700,5000)</f>
-        <v>4923</v>
-      </c>
-      <c r="F67" s="3">
-        <f t="shared" ref="F67:F101" ca="1" si="3">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
-        <v>43527</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>18</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68">
+      <c r="C74" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>4038</v>
-      </c>
-      <c r="F68" s="3">
+        <v>3216</v>
+      </c>
+      <c r="F74" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>43589</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>19</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="10">
+        <v>31</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E75" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>4030</v>
-      </c>
-      <c r="F69" s="3">
+        <v>4007</v>
+      </c>
+      <c r="F75" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43521</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>20</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70">
+        <v>43568</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="10">
+        <v>33</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>4987</v>
-      </c>
-      <c r="F70" s="3">
+        <v>4969</v>
+      </c>
+      <c r="F76" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43539</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>24</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71">
+        <v>43511</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10">
+        <v>35</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>3743</v>
-      </c>
-      <c r="F71" s="3">
+        <v>3804</v>
+      </c>
+      <c r="F77" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43576</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>26</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72">
+        <v>43585</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10">
+        <v>31</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>4667</v>
-      </c>
-      <c r="F72" s="3">
+        <v>4135</v>
+      </c>
+      <c r="F78" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43563</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
+        <v>43511</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10">
+        <v>37</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>3516</v>
+      </c>
+      <c r="F79" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43560</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10">
+        <v>39</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4362</v>
+      </c>
+      <c r="F80" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43480</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10">
+        <v>40</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>3590</v>
+      </c>
+      <c r="F81" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43489</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="10">
+        <v>45</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4792</v>
+      </c>
+      <c r="F82" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43527</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="10">
+        <v>44</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>3367</v>
+      </c>
+      <c r="F83" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43528</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="10">
+        <v>46</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>3302</v>
+      </c>
+      <c r="F84" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43556</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="10">
+        <v>48</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>2759</v>
+      </c>
+      <c r="F85" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43573</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="10">
+        <v>49</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4511</v>
+      </c>
+      <c r="F86" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43557</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="10">
+        <v>50</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E87" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>3910</v>
+      </c>
+      <c r="F87" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43568</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="10">
+        <v>52</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4798</v>
+      </c>
+      <c r="F88" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43582</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="10">
+        <v>54</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4918</v>
+      </c>
+      <c r="F89" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43518</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="10">
+        <v>56</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>2765</v>
+      </c>
+      <c r="F90" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43506</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="10">
+        <v>58</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4374</v>
+      </c>
+      <c r="F91" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43513</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="10">
+        <v>59</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4087</v>
+      </c>
+      <c r="F92" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43535</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="10">
         <v>25</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" t="s">
-        <v>139</v>
-      </c>
-      <c r="E73">
+      <c r="C93" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E93" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>3243</v>
-      </c>
-      <c r="F73" s="3">
+        <v>3915</v>
+      </c>
+      <c r="F93" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43516</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>29</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" t="s">
-        <v>140</v>
-      </c>
-      <c r="E74">
+        <v>43513</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="10">
+        <v>15</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E94" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>2820</v>
-      </c>
-      <c r="F74" s="3">
+        <v>4599</v>
+      </c>
+      <c r="F94" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>31</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" t="s">
-        <v>141</v>
-      </c>
-      <c r="E75">
-        <f t="shared" ca="1" si="2"/>
-        <v>4593</v>
-      </c>
-      <c r="F75" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
+        <v>43511</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="10">
         <v>33</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ca="1" si="2"/>
-        <v>3054</v>
-      </c>
-      <c r="F76" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43586</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>35</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" t="s">
-        <v>132</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ca="1" si="2"/>
-        <v>2946</v>
-      </c>
-      <c r="F77" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>31</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" t="s">
-        <v>133</v>
-      </c>
-      <c r="E78">
-        <f t="shared" ca="1" si="2"/>
-        <v>3097</v>
-      </c>
-      <c r="F78" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43487</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>37</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" t="s">
-        <v>134</v>
-      </c>
-      <c r="E79">
-        <f t="shared" ca="1" si="2"/>
-        <v>4047</v>
-      </c>
-      <c r="F79" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43476</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>39</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" t="s">
-        <v>135</v>
-      </c>
-      <c r="E80">
+      <c r="C95" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>4153</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F95" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43499</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>40</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81">
+        <v>43517</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="10">
+        <v>34</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>4183</v>
-      </c>
-      <c r="F81" s="3">
+        <v>3395</v>
+      </c>
+      <c r="F96" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43494</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>45</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E82">
+        <v>43490</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="10">
+        <v>25</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>3833</v>
-      </c>
-      <c r="F82" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>44</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ca="1" si="2"/>
-        <v>3653</v>
-      </c>
-      <c r="F83" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43505</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>46</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84">
-        <f t="shared" ca="1" si="2"/>
-        <v>3507</v>
-      </c>
-      <c r="F84" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43487</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>48</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E85">
-        <f t="shared" ca="1" si="2"/>
-        <v>4170</v>
-      </c>
-      <c r="F85" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>49</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E86">
-        <f t="shared" ca="1" si="2"/>
-        <v>3057</v>
-      </c>
-      <c r="F86" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43548</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>50</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E87">
-        <f t="shared" ca="1" si="2"/>
-        <v>3400</v>
-      </c>
-      <c r="F87" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43567</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>52</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E88">
-        <f t="shared" ca="1" si="2"/>
-        <v>3245</v>
-      </c>
-      <c r="F88" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>54</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E89">
-        <f t="shared" ca="1" si="2"/>
-        <v>3572</v>
-      </c>
-      <c r="F89" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43543</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>56</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E90">
-        <f t="shared" ca="1" si="2"/>
-        <v>3541</v>
-      </c>
-      <c r="F90" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>58</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E91">
-        <f t="shared" ca="1" si="2"/>
-        <v>4768</v>
-      </c>
-      <c r="F91" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43503</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>59</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E92">
-        <f t="shared" ca="1" si="2"/>
-        <v>4824</v>
-      </c>
-      <c r="F92" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43512</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>25</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E93">
-        <f t="shared" ca="1" si="2"/>
-        <v>3859</v>
-      </c>
-      <c r="F93" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43578</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>15</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E94">
-        <f t="shared" ca="1" si="2"/>
-        <v>3044</v>
-      </c>
-      <c r="F94" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43536</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>33</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E95">
-        <f t="shared" ca="1" si="2"/>
-        <v>4112</v>
-      </c>
-      <c r="F95" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43514</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>34</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E96">
-        <f t="shared" ca="1" si="2"/>
-        <v>3226</v>
-      </c>
-      <c r="F96" s="3">
+        <v>4452</v>
+      </c>
+      <c r="F97" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>43475</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>25</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="10">
+        <v>24</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4928</v>
+      </c>
+      <c r="F98" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43552</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="10">
+        <v>28</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>3204</v>
+      </c>
+      <c r="F99" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43571</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="10">
+        <v>26</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E97">
+      <c r="E100" s="17">
+        <f ca="1">SUM(E2:E100)</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>43477</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="10">
+        <v>21</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>2757</v>
-      </c>
-      <c r="F97" s="3">
+        <v>3634</v>
+      </c>
+      <c r="F101" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43578</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>24</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E98">
-        <f t="shared" ca="1" si="2"/>
-        <v>3176</v>
-      </c>
-      <c r="F98" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43531</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>28</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ca="1" si="2"/>
-        <v>4833</v>
-      </c>
-      <c r="F99" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43559</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>26</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100">
-        <f t="shared" ca="1" si="2"/>
-        <v>4644</v>
-      </c>
-      <c r="F100" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>21</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E101">
-        <f t="shared" ca="1" si="2"/>
-        <v>4494</v>
-      </c>
-      <c r="F101" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43505</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43508</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
       <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E102" s="3">
+        <f ca="1">SUM(E2:E101)</f>
+        <v>381014</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Botón1_Haga_clic_en">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1533525</xdr:colOff>
+                    <xdr:row>103</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>2667000</xdr:colOff>
+                    <xdr:row>107</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3074" r:id="rId5" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!PATA">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>102</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>105</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3075" r:id="rId6" name="Button 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!SUMA">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>83</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>88</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="D8:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D8" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="4:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="20" t="str">
+        <f>VLOOKUP(Hoja2!E9,Hoja3!A2:I101,3,FALSE)</f>
+        <v>Antonio Box Alonso</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="20">
+        <f>VLOOKUP(E9,Hoja3!A2:F101,2,FALSE)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="20" t="str">
+        <f>VLOOKUP(E9,Hoja3!A2:F101,4,FALSE)</f>
+        <v>Analista de Créditos y Riesgos</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="21">
+        <f ca="1">VLOOKUP(E9,Hoja3!A2:F101,5,FALSE)</f>
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="22">
+        <f ca="1">VLOOKUP(E9,Hoja3!A2:F101,6,FALSE)</f>
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4099" r:id="rId4" name="Spinner 3">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>571500</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>942975</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja3!$A$2:$A$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>J18 E9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>